--- a/product.xlsx
+++ b/product.xlsx
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -152,11 +152,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,10 +207,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,10 +230,10 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.1"/>
@@ -356,7 +348,7 @@
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="0" t="s">
@@ -400,7 +392,7 @@
       <c r="F4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
